--- a/pred_ohlcv/54_21/2020-01-11 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 IPX ohlcv.xlsx
@@ -2784,7 +2784,7 @@
         <v>154659.1739</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>21890.28457829007</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>20864.72207829007</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>21515.68027829007</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>23432.60837829007</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>24116.50417829007</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>21570.51517829007</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>23602.69827829007</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>21820.22817829007</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>20182.03847829007</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>20182.03847829007</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>21374.28617829007</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>20190.41077829007</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>53825.71157829007</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>54488.66977829007</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>53596.91577829007</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>53665.09817829007</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>53665.09817829007</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>55769.53677829007</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>56107.01587829007</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>53467.18917829007</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>54687.29527829007</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>52040.19187829007</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>62427.10827829007</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>62427.10827829007</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>60368.53447829007</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>70683.42377829007</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>119298.5463782901</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>119298.5463782901</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>117354.4821782901</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>117679.9612782901</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>109845.3693782901</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>109845.3693782901</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>110361.7947782901</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>111762.5178782901</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>133078.1928856451</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>131232.5656856451</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>130373.5258856451</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>131036.4840856451</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>131036.4840856451</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>135560.7835856451</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>134906.980585645</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>134906.980585645</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>131560.765985645</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>133079.549385645</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>131094.277285645</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>132408.193685645</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>130668.083885645</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>130668.083885645</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>132176.362985645</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>130976.977285645</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>131880.622785645</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>131543.143685645</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>133928.246485645</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>131742.277585645</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>133301.822885645</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>131213.999385645</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>131213.999385645</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>130563.041185645</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>130563.041185645</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>6949.62118564501</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>7275.10028564501</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-120196.128114355</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-118600.832714355</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-120450.600314355</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-121427.037614355</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-120450.600314355</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-123077.842914355</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-152945.257414355</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-167174.7356763681</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-165334.9828763681</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-166311.4201763681</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-167195.0236763681</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-166869.5445763681</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-166869.5445763681</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-166544.0654763681</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-167195.0236763681</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-167195.0236763681</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-166869.5445763681</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-167745.5003763681</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-167745.5003763681</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-167420.0212763681</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-168938.1536763681</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-168986.7824763681</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-168938.8500763681</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-168938.8500763681</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-168938.8500763681</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-169592.5235763681</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-245622.0194599681</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-245490.0194599681</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-245490.0194599681</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-231876.5063599681</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-241218.5402599681</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 IPX ohlcv.xlsx
@@ -2784,7 +2784,7 @@
         <v>154659.1739</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>53825.71157829007</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>54488.66977829007</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>53596.91577829007</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>53665.09817829007</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>53665.09817829007</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>55769.53677829007</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>56107.01587829007</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>53467.18917829007</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>54687.29527829007</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>52040.19187829007</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>62427.10827829007</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>62427.10827829007</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>60368.53447829007</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>70683.42377829007</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>119298.5463782901</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>119298.5463782901</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>117354.4821782901</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>117679.9612782901</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>109845.3693782901</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>109845.3693782901</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>111517.3061782901</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>110361.7947782901</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>111762.5178782901</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>131036.4840856451</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>135560.7835856451</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>136446.864785645</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>134906.980585645</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>134906.980585645</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>131560.765985645</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>133079.549385645</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>131094.277285645</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>130668.083885645</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>132176.362985645</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>130976.977285645</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>131880.622785645</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>131543.143685645</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>133928.246485645</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>131742.277585645</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>133301.822885645</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>131213.999385645</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>131213.999385645</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>130563.041185645</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>130563.041185645</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>6949.62118564501</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>7275.10028564501</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-18154.50783156401</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-15615.20253156401</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>17469.16438564499</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>17794.64348564499</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>13868.17218564499</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>12017.73648564499</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>12017.73648564499</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>13777.76308564499</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>12271.19638564499</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-13969.27421435501</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-12218.70561435501</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-12325.70571435501</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-11443.17481435501</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-10466.73751435501</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-3381.871014355012</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-12223.04681435501</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-120196.128114355</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-118600.832714355</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-120450.600314355</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-121427.037614355</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-120450.600314355</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-123077.842914355</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-121140.710714355</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-120489.752514355</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-120489.752514355</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-121358.583414355</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-121033.104314355</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-121913.223414355</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-121913.223414355</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-121034.366914355</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-122220.819514355</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-121569.861314355</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-123085.371214355</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-121340.981114355</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-123131.572414355</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-123131.572414355</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-123131.572414355</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-122155.135114355</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-122155.135114355</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-122155.135114355</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-123377.001614355</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-123377.001614355</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-123377.001614355</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-122196.235314355</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-122196.235314355</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-123702.477214355</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-124600.281114355</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-124600.281114355</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-124600.281114355</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-124600.281114355</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-129879.839514355</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-155689.090614355</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-155363.611514355</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-152945.257414355</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-149768.591014355</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-151178.181114355</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-149389.977714355</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-150642.663314355</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-150642.663314355</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-146845.863114355</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-158284.645076368</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-156406.559976368</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-163999.345776368</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-163999.345776368</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-163348.3875763681</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-161804.4581763681</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-163352.798576368</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-161840.032576368</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-162165.511676368</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-161730.032576368</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-163811.525276368</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-161917.0095763681</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-162877.5710763681</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-161575.6546763681</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-161575.6546763681</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-163082.3680763681</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-163082.3680763681</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-163082.3680763681</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-163082.3680763681</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-163438.7797763681</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-160359.6893763681</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-161735.3647763681</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-163620.2177763681</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-162624.2883763681</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-162624.2883763681</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-164480.8204763681</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-164480.8204763681</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-164806.2995763681</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-163617.5531763681</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-162966.5949763681</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-162966.5949763681</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-167014.8764763681</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-166689.3973763681</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-167883.4142763681</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-167883.4142763681</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-169625.8658763681</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-169625.8658763681</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-169625.8658763681</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-168974.9076763681</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-168975.7975763681</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-169847.1662763681</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-167174.7356763681</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-167174.7356763681</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-169562.6845763681</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-169495.2861763681</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-169495.2861763681</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-169624.7568763681</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-169592.5235763681</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-169577.1411763681</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-170230.5405763681</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-170108.9626763681</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-170108.9626763681</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-173082.2508763681</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-172968.3556599681</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-181347.4214599681</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-180930.7332599681</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-182184.9523599681</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-181326.5582599681</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-182217.4431599681</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-183266.2007599681</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-181906.7603599681</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-181906.7603599681</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-180930.3230599681</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-180930.3230599681</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-181581.2812599681</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-181602.4178599681</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-180096.4476599681</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-180747.4058599681</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-179862.1426599681</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-180187.6217599681</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-179862.1426599681</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-179862.1426599681</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-181630.6079599682</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-181535.9048599681</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-181651.1860599681</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-181490.8486599681</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-181490.8486599681</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-182253.5114599681</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-182253.5114599681</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-180370.2883599681</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-182344.7646599681</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-182344.7646599681</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-180261.8677599682</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-180653.3468599682</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-180239.8677599682</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-182463.6362599682</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-181584.7728599682</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-181584.7728599682</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-180375.5019599682</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-181608.6507599681</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-245622.0194599681</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-245622.0194599681</v>
       </c>
       <c r="H1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-245490.0194599681</v>
       </c>
       <c r="H1130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-245490.0194599681</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-231876.5063599681</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-241218.5402599681</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-222866.6414599681</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-230866.4161599681</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-230814.3646599681</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-230863.9912599681</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-230863.9912599681</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-230756.5644599681</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-230668.5644599681</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
